--- a/automationOnboardingSample-master/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/automationOnboardingSample-master/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Url</t>
   </si>
@@ -41,13 +41,16 @@
   </si>
   <si>
     <t>navitha.gollapalli@gmail.com</t>
+  </si>
+  <si>
+    <t>navi.automationtester@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +65,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,20 +89,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Linked Cell" xfId="2" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -371,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -395,8 +417,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="14.65" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -406,7 +428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.65" thickTop="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -417,11 +439,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="14.65" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.65" thickTop="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
